--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedControlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedControlTable_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>PRODUCTCD</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>MSRP_2000</t>
-  </si>
-  <si>
-    <t>MSRP_2000_SS_TEST</t>
   </si>
   <si>
     <t>MSRP_VERSION</t>
@@ -416,7 +413,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -467,7 +464,7 @@
         <v>20200000</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -488,10 +485,10 @@
         <v>99999999</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedControlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/backdatedControlTable_UT_SS.xlsx
@@ -59,7 +59,7 @@
     <t>BACKDATED_SS</t>
   </si>
   <si>
-    <t>BACKDATED2_SS</t>
+    <t>SYMBOL_2000</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,10 +461,10 @@
         <v>20000101</v>
       </c>
       <c r="E2" s="3">
-        <v>20200000</v>
+        <v>20140101</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="3">
-        <v>20200001</v>
+        <v>20140102</v>
       </c>
       <c r="E3" s="3">
-        <v>99999999</v>
+        <v>20500000</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
